--- a/Devint Bataille Navale/docs/soundsApi.xlsx
+++ b/Devint Bataille Navale/docs/soundsApi.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Baptiste\Documents\SI3_S2\DevInt\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="75" windowWidth="22995" windowHeight="10545"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>enum id</t>
   </si>
@@ -211,6 +216,66 @@
   </si>
   <si>
     <t>PH10</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>Pour t'entrainer, je vais t'aider à viser une case. La case que tu vises est de couleur jaune. Quand tu entends [tchick] c'est que tu changes la case que tu vises.  Le but du jeu est de tirer (en appuyant sur entrée ) sur toutes les cases des bateaux ennemi pour les couler.</t>
+  </si>
+  <si>
+    <t>Maintenant, tu vas viser la case de couleur verte, et appuyer sur Entrée.</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>Bravo ! Les bateaux ennemi mesurent 3 cases et sont de couleur rouge, comme celui qui vient d'apparaitre à l'écran. Le but du jeu est de toucher toutes les cases des bateaux des adversaires ! Pour t'entrainer, tu vas couler ce bateau. Bien sûr, pendant la partie, tu ne les verras pas en rouge ! Ils seront blancs, comme toutes les autres cases.</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bravo ! tu viens de toucher la premiere case de ce bateau. Tu as entendu l'explosion ? </t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>Bravo ! Tu as coulé le bateau ! Pendant la partie, il y aura 3 bateaux ennemi à couler. Je pense que tu es enfin prêt moussaillon. Allez, à l'abordage !</t>
+  </si>
+  <si>
+    <t>P27</t>
+  </si>
+  <si>
+    <t>P28</t>
+  </si>
+  <si>
+    <t>P29</t>
+  </si>
+  <si>
+    <t>P30</t>
+  </si>
+  <si>
+    <t>P31</t>
+  </si>
+  <si>
+    <t>Tu as touché un bateau de l'ordinateur</t>
+  </si>
+  <si>
+    <t>Tu as coulé un bateau de l'ordinateur</t>
+  </si>
+  <si>
+    <t>Il te reste 1 bateau à couler</t>
+  </si>
+  <si>
+    <t>Il te reste 2 bateaux à couler</t>
+  </si>
+  <si>
+    <t>Pas de chance ! tu as raté</t>
   </si>
 </sst>
 </file>
@@ -246,10 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -268,13 +336,16 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:B24" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A3:B24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:B34" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A3:B34"/>
   <tableColumns count="2">
     <tableColumn id="1" name="enum id"/>
     <tableColumn id="2" name="texte"/>
@@ -284,8 +355,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A27:B37" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A27:B37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A36:B46" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A36:B46"/>
   <tableColumns count="2">
     <tableColumn id="1" name="enum id"/>
     <tableColumn id="2" name="phrase"/>
@@ -295,7 +366,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -337,7 +408,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,7 +443,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -581,16 +652,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B37"/>
+  <dimension ref="A3:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="119.140625" customWidth="1"/>
+    <col min="2" max="2" width="207.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -769,91 +840,171 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>44</v>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
+        <v>71</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
+        <v>73</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>47</v>
+        <v>75</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
+        <v>77</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" t="s">
-        <v>50</v>
+        <v>78</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" t="s">
-        <v>52</v>
+        <v>79</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" t="s">
-        <v>53</v>
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>64</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B46" t="s">
         <v>54</v>
       </c>
     </row>
@@ -873,7 +1024,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -885,7 +1036,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Devint Bataille Navale/docs/soundsApi.xlsx
+++ b/Devint Bataille Navale/docs/soundsApi.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t>enum id</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>Pas de chance ! tu as raté</t>
+  </si>
+  <si>
+    <t>P32</t>
+  </si>
+  <si>
+    <t>[F1]</t>
   </si>
 </sst>
 </file>
@@ -344,8 +350,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:B34" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A3:B34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:B35" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A3:B35"/>
   <tableColumns count="2">
     <tableColumn id="1" name="enum id"/>
     <tableColumn id="2" name="texte"/>
@@ -355,8 +361,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A36:B46" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A36:B46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A37:B47" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A37:B47"/>
   <tableColumns count="2">
     <tableColumn id="1" name="enum id"/>
     <tableColumn id="2" name="phrase"/>
@@ -652,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B46"/>
+  <dimension ref="A3:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,91 +926,99 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>64</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>54</v>
       </c>
     </row>
